--- a/trunc/as0005925/graph.xlsx
+++ b/trunc/as0005925/graph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangao/Documents/Github/MMIPU-2022/trunc/as0005925/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81C6D4BE-2693-364E-BF2C-9BC965B75354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B594B7-324F-9C42-91AC-FF7FA9CBDC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{38556AEC-5FE1-1444-BB63-6504E809C167}"/>
   </bookViews>
@@ -32,32 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>nolineal</t>
-  </si>
-  <si>
-    <t>lineal</t>
-  </si>
-  <si>
-    <t>27.15</t>
-  </si>
-  <si>
-    <t>29.45</t>
-  </si>
-  <si>
-    <t>31.75</t>
-  </si>
-  <si>
-    <t>32.9</t>
-  </si>
-  <si>
-    <t>34.05</t>
-  </si>
-  <si>
-    <t>35.2</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2338,31 +2313,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86101C58-4E6E-0E48-858B-3B577EB719D6}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="B3:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>44648</v>
-      </c>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
       <c r="E3">
         <v>0</v>
       </c>
@@ -2370,10 +2330,7 @@
         <v>46.35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>1</v>
       </c>
@@ -2381,10 +2338,8 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>44742</v>
-      </c>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
       <c r="E5">
         <v>2</v>
       </c>
@@ -2392,10 +2347,7 @@
         <v>49.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>3</v>
       </c>
@@ -2403,10 +2355,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>4</v>
       </c>
@@ -2414,10 +2363,7 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>5</v>
       </c>
@@ -2425,10 +2371,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>6</v>
       </c>
@@ -2436,7 +2379,7 @@
         <v>54.45</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>7</v>
       </c>
@@ -2444,7 +2387,7 @@
         <v>55.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>8</v>
       </c>
@@ -2452,7 +2395,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>9</v>
       </c>
